--- a/biology/Botanique/Corylopsis_willmottiae/Corylopsis_willmottiae.xlsx
+++ b/biology/Botanique/Corylopsis_willmottiae/Corylopsis_willmottiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corylopsis willmottiae est un petit arbuste de la famille des Hamamelidacées originaire de Chine (Sichuan).
 Nom chinois : 四川蜡瓣花.
@@ -512,10 +524,12 @@
           <t>Position taxonomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est, selon l'index GRIN et la révision du genre de Brian D. Morley et Jew-Ming Chao[1], est identifiée à Corylopis sinensis var. sinensis.
-Cependant, cette espèce, avec 24 paires de chromosomes[2], semble pouvoir difficilement être une variété tétraploïde de Corylopsis sinensis (12 paires), mais plus sûrement être une espèce distincte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est, selon l'index GRIN et la révision du genre de Brian D. Morley et Jew-Ming Chao, est identifiée à Corylopis sinensis var. sinensis.
+Cependant, cette espèce, avec 24 paires de chromosomes, semble pouvoir difficilement être une variété tétraploïde de Corylopsis sinensis (12 paires), mais plus sûrement être une espèce distincte.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc ne dépassant pas 5 m de haut dans sa plus grande taille (il reste généralement plus petit).
 Les feuilles de cette espèce sont pubescentes sur les nervures.
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce originaire du Sichuan (Chine) est maintenant répandue dans toutes les régions tempérées.
 </t>
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est appréciée en arbuste d'ornement pour sa floraison en fin d'hiver et son faible développement. Sa culture reste simple, avec comme principale exigence un sol acide, assez riche, mais elle est sans contrainte sur l'ensoleillement et elle dispose d'une bonne résistance au froid.
 			Floraison
